--- a/src/test/resources/Ajio_data.xlsx
+++ b/src/test/resources/Ajio_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Scenario_Name</t>
   </si>
@@ -29,21 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">Assertion values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the user can filter options using gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> User select gender by choose boys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boys (188)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the user can view products using five-grid feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User select five-grid option to view selected products</t>
   </si>
   <si>
     <r>
@@ -71,12 +56,6 @@
     <t xml:space="preserve">User wants to redirect to home page</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user can select a specific product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User select a product</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that user can able to search products</t>
   </si>
   <si>
@@ -87,6 +66,15 @@
   </si>
   <si>
     <t xml:space="preserve">Price (lowest first), Relevance, Discount, Price (highest first), What's New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can search for a product using search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring</t>
   </si>
 </sst>
 </file>
@@ -96,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,6 +112,14 @@
       <color rgb="FFA9B7C6"/>
       <name val="Arial Unicode MS"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -169,13 +165,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -255,13 +255,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.77"/>
@@ -280,58 +280,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
